--- a/data/trans_orig/P14C07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C07-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BD5ED09-D961-4239-9081-D6E741A1E128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D38A04A-D5A5-43A4-AB8E-EF81DCC8E6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0838A7A9-C3E3-455F-B6FD-251E6E862BBE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EE286A3E-4B84-492A-933F-252D7CE51C0D}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -110,7 +110,7 @@
     <t>52,85%</t>
   </si>
   <si>
-    <t>14,42%</t>
+    <t>14,5%</t>
   </si>
   <si>
     <t>87,64%</t>
@@ -119,16 +119,16 @@
     <t>80,13%</t>
   </si>
   <si>
-    <t>46,27%</t>
+    <t>42,33%</t>
   </si>
   <si>
     <t>70,48%</t>
   </si>
   <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
   </si>
   <si>
     <t>47,15%</t>
@@ -137,22 +137,22 @@
     <t>12,36%</t>
   </si>
   <si>
-    <t>85,58%</t>
+    <t>85,5%</t>
   </si>
   <si>
     <t>11,86%</t>
   </si>
   <si>
-    <t>53,11%</t>
+    <t>47,33%</t>
   </si>
   <si>
     <t>24,35%</t>
   </si>
   <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -161,13 +161,13 @@
     <t>8,01%</t>
   </si>
   <si>
-    <t>35,69%</t>
+    <t>36,52%</t>
   </si>
   <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>29,26%</t>
+    <t>24,01%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -179,19 +179,19 @@
     <t>70,5%</t>
   </si>
   <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
   </si>
   <si>
     <t>72,13%</t>
   </si>
   <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -200,19 +200,19 @@
     <t>29,5%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
   </si>
   <si>
     <t>27,87%</t>
   </si>
   <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -272,19 +272,19 @@
     <t>79,37%</t>
   </si>
   <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
   </si>
   <si>
     <t>82,74%</t>
   </si>
   <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -293,106 +293,106 @@
     <t>16,47%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>39,01%</t>
   </si>
   <si>
     <t>13,78%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>21,83%</t>
+    <t>20,26%</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>18,66%</t>
+    <t>18,76%</t>
   </si>
   <si>
     <t>69,71%</t>
   </si>
   <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
   </si>
   <si>
     <t>75,44%</t>
   </si>
   <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
   </si>
   <si>
     <t>74,24%</t>
   </si>
   <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
   </si>
   <si>
     <t>23,6%</t>
   </si>
   <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>48,04%</t>
   </si>
   <si>
     <t>21,35%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
   </si>
   <si>
     <t>21,82%</t>
   </si>
   <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
   </si>
   <si>
     <t>6,69%</t>
   </si>
   <si>
-    <t>27,67%</t>
+    <t>33,27%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>9,96%</t>
+    <t>11,28%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -807,7 +807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A806BCAE-BD1B-4543-801D-4CE444C7E677}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55E93AC-7071-49DA-9510-F2CC3EBBDF16}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C07-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D38A04A-D5A5-43A4-AB8E-EF81DCC8E6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB936AB9-47DB-4F6B-9DA9-7BFB92ABA132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EE286A3E-4B84-492A-933F-252D7CE51C0D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{185A3A63-15C8-4A6B-924D-F7C813DDBAE3}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="120">
-  <si>
-    <t>Población según el tiempo de diagnóstico del estreñimiento crónico en 2015 (Tasa respuesta: 1,02%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="119">
+  <si>
+    <t>Población según el tiempo de diagnóstico del estreñimiento crónico en 2016 (Tasa respuesta: 1,02%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -104,13 +104,13 @@
     <t>36,25%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>52,85%</t>
   </si>
   <si>
-    <t>14,5%</t>
+    <t>14,48%</t>
   </si>
   <si>
     <t>87,64%</t>
@@ -119,16 +119,16 @@
     <t>80,13%</t>
   </si>
   <si>
-    <t>42,33%</t>
+    <t>47,09%</t>
   </si>
   <si>
     <t>70,48%</t>
   </si>
   <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
   </si>
   <si>
     <t>47,15%</t>
@@ -137,22 +137,22 @@
     <t>12,36%</t>
   </si>
   <si>
-    <t>85,5%</t>
+    <t>85,52%</t>
   </si>
   <si>
     <t>11,86%</t>
   </si>
   <si>
-    <t>47,33%</t>
+    <t>47,34%</t>
   </si>
   <si>
     <t>24,35%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -161,16 +161,16 @@
     <t>8,01%</t>
   </si>
   <si>
-    <t>36,52%</t>
+    <t>44,69%</t>
   </si>
   <si>
     <t>5,17%</t>
   </si>
   <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -179,19 +179,19 @@
     <t>70,5%</t>
   </si>
   <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
   </si>
   <si>
     <t>72,13%</t>
   </si>
   <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -200,19 +200,19 @@
     <t>29,5%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
   </si>
   <si>
     <t>27,87%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>58,89%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
   </si>
   <si>
     <t>13,49%</t>
@@ -221,22 +221,22 @@
     <t>12,61%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>84,18%</t>
   </si>
   <si>
-    <t>34,35%</t>
+    <t>36,78%</t>
   </si>
   <si>
     <t>66,03%</t>
   </si>
   <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
   </si>
   <si>
     <t>45,15%</t>
@@ -245,13 +245,13 @@
     <t>15,82%</t>
   </si>
   <si>
-    <t>65,65%</t>
+    <t>63,22%</t>
   </si>
   <si>
     <t>22,14%</t>
   </si>
   <si>
-    <t>60,78%</t>
+    <t>62,87%</t>
   </si>
   <si>
     <t>54,85%</t>
@@ -260,7 +260,7 @@
     <t>11,82%</t>
   </si>
   <si>
-    <t>50,0%</t>
+    <t>57,93%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -272,19 +272,19 @@
     <t>79,37%</t>
   </si>
   <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
   </si>
   <si>
     <t>82,74%</t>
   </si>
   <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -293,106 +293,103 @@
     <t>16,47%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
   </si>
   <si>
     <t>13,78%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
   </si>
   <si>
     <t>4,16%</t>
   </si>
   <si>
-    <t>20,26%</t>
+    <t>24,2%</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>18,76%</t>
+    <t>17,05%</t>
   </si>
   <si>
     <t>69,71%</t>
   </si>
   <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
   </si>
   <si>
     <t>75,44%</t>
   </si>
   <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
+    <t>62,93%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
   </si>
   <si>
     <t>74,24%</t>
   </si>
   <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
   </si>
   <si>
     <t>23,6%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
   </si>
   <si>
     <t>21,35%</t>
   </si>
   <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
   </si>
   <si>
     <t>21,82%</t>
   </si>
   <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
   </si>
   <si>
     <t>6,69%</t>
   </si>
   <si>
-    <t>33,27%</t>
+    <t>34,36%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -807,7 +804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55E93AC-7071-49DA-9510-F2CC3EBBDF16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E838B609-E37A-4DF4-92BE-892AB97559D4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2093,13 +2090,13 @@
         <v>2951</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,7 +2152,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
